--- a/Übungen/Berechnung_Zentralwert_Mittelwert_Varianz_Standardabweichung.xlsx
+++ b/Übungen/Berechnung_Zentralwert_Mittelwert_Varianz_Standardabweichung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Wischniewski\_Studium\Wintersemester_2023\Wirtschaftsstatistik\Übungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Michael\Bildung\Studium\FH Beuth\Wintersemester_2023\Wirtschaftsstatistik\Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E36279-BC3E-4A05-B074-60D6615F1DA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F895AAB2-213A-4EFB-B8D7-55F7374E1228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{A849037F-6654-4017-81AD-D926F32CA3AD}"/>
+    <workbookView xWindow="28680" yWindow="1110" windowWidth="29040" windowHeight="15990" xr2:uid="{A849037F-6654-4017-81AD-D926F32CA3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,24 +23,58 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>SUMME</t>
   </si>
   <si>
-    <t>Varanz</t>
+    <t>Standardabweichung s</t>
+  </si>
+  <si>
+    <t>Varanz s²</t>
+  </si>
+  <si>
+    <t>Summe der quadr. Werte</t>
+  </si>
+  <si>
+    <t>qurdaritischer Wert 
+zum Beobachrungswert xi</t>
+  </si>
+  <si>
+    <t>Summe / durch Summe der Ausprägungen</t>
+  </si>
+  <si>
+    <t>quadratischer Wert zum arithmetischen Mittel</t>
+  </si>
+  <si>
+    <t>Vaianz ist die Differenz aus Summe der quadr. Werte / durch Summe der Ausprägungen und 
+quadratischer Wert zum arithmetischen Mittel</t>
+  </si>
+  <si>
+    <t>s²=SUMME(xi²)/n - Mittelwert²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +93,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -135,6 +177,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1352,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA0D211-0E98-4445-B8E7-82506701FB8E}">
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,14 +1418,24 @@
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="1"/>
     <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="25.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7">
         <v>1991</v>
       </c>
@@ -1398,8 +1463,19 @@
         <f>POWER((I1-J1),2)</f>
         <v>3153.3329752066147</v>
       </c>
+      <c r="N1" s="1">
+        <f>POWER(C1,2)</f>
+        <v>151321000000</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1">
+        <f>POWER(I1,2)</f>
+        <v>10816</v>
+      </c>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>1992</v>
       </c>
@@ -1427,8 +1503,17 @@
         <f t="shared" ref="K2:K11" si="2">POWER((I2-J2),2)</f>
         <v>3064.1257024793426</v>
       </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N11" si="3">POWER(C2,2)</f>
+        <v>174239456400</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="T2" s="1">
+        <f t="shared" ref="T2:T11" si="4">POWER(I2,2)</f>
+        <v>10983.039999999999</v>
+      </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>1993</v>
       </c>
@@ -1456,8 +1541,17 @@
         <f t="shared" si="2"/>
         <v>602.92570247934054</v>
       </c>
+      <c r="N3" s="1">
+        <f t="shared" si="3"/>
+        <v>175184102500</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="T3" s="1">
+        <f t="shared" si="4"/>
+        <v>18387.359999999997</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1994</v>
       </c>
@@ -1485,8 +1579,17 @@
         <f t="shared" si="2"/>
         <v>103.11479338843036</v>
       </c>
+      <c r="N4" s="1">
+        <f t="shared" si="3"/>
+        <v>178739546176</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="T4" s="1">
+        <f t="shared" si="4"/>
+        <v>22500</v>
+      </c>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>1995</v>
       </c>
@@ -1514,8 +1617,17 @@
         <f t="shared" si="2"/>
         <v>40.380247933884533</v>
       </c>
+      <c r="N5" s="1">
+        <f t="shared" si="3"/>
+        <v>182582726209</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="T5" s="1">
+        <f t="shared" si="4"/>
+        <v>23654.440000000002</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>1996</v>
       </c>
@@ -1543,8 +1655,17 @@
         <f t="shared" si="2"/>
         <v>0.71479338842970142</v>
       </c>
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>185359525156</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="T6" s="1">
+        <f t="shared" si="4"/>
+        <v>25921</v>
+      </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>1997</v>
       </c>
@@ -1559,7 +1680,7 @@
         <v>1054.0909090908826</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F11" si="3">POWER((C7-D7),2)</f>
+        <f t="shared" ref="F7:F11" si="5">POWER((C7-D7),2)</f>
         <v>1111107.6446280433</v>
       </c>
       <c r="I7" s="3">
@@ -1572,8 +1693,16 @@
         <f t="shared" si="2"/>
         <v>442.91115702479163</v>
       </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>185480094276</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="4"/>
+        <v>32833.439999999995</v>
+      </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>1998</v>
       </c>
@@ -1588,7 +1717,7 @@
         <v>10624.090909090883</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112871307.64462754</v>
       </c>
       <c r="I8" s="3">
@@ -1601,8 +1730,16 @@
         <f t="shared" si="2"/>
         <v>758.75206611570025</v>
       </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>193814779536</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="4"/>
+        <v>35231.289999999994</v>
+      </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>1999</v>
       </c>
@@ -1617,7 +1754,7 @@
         <v>12985.090909090883</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>168612585.91735467</v>
       </c>
       <c r="I9" s="3">
@@ -1630,8 +1767,16 @@
         <f t="shared" si="2"/>
         <v>976.27842975206465</v>
       </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>195899186025</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="4"/>
+        <v>36633.96</v>
+      </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>2000</v>
       </c>
@@ -1646,7 +1791,7 @@
         <v>22808.090909090883</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>520209010.91735417</v>
       </c>
       <c r="I10" s="3">
@@ -1659,8 +1804,16 @@
         <f t="shared" si="2"/>
         <v>1145.5147933884277</v>
       </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>204691095184</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="4"/>
+        <v>37636</v>
+      </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>2001</v>
       </c>
@@ -1675,7 +1828,7 @@
         <v>24671.090909090883</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>608662726.64462674</v>
       </c>
       <c r="I11" s="2">
@@ -1688,8 +1841,16 @@
         <f t="shared" si="2"/>
         <v>1447.4566115702448</v>
       </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>206380312681</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="4"/>
+        <v>39283.24</v>
+      </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <f>SUM(C1:C11)</f>
         <v>4725819</v>
@@ -1697,7 +1858,7 @@
       <c r="E12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
         <f>SUM(F1:F11)</f>
         <v>3385894982.909091</v>
       </c>
@@ -1713,15 +1874,15 @@
         <v>11735.507272727273</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <f>C12/11</f>
         <v>429619.90909090912</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9">
         <f>F12/11</f>
         <v>307808634.80991739</v>
       </c>
@@ -1730,32 +1891,119 @@
         <v>160.15454545454548</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="9">
         <f>K12/11</f>
         <v>1066.8642975206612</v>
       </c>
+      <c r="N13" s="8">
+        <f>SUM(N1:N11)</f>
+        <v>2033691824143</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
+    <row r="14" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
         <f>SQRT(F13)</f>
         <v>17544.475905820538</v>
       </c>
-      <c r="K14" s="1">
+      <c r="J14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
         <f>SQRT(K13)</f>
         <v>32.66288868916314</v>
+      </c>
+      <c r="N14" s="1">
+        <f>N13/11</f>
+        <v>184881074922.09091</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="9">
+        <f>N14-N15</f>
+        <v>307808634.80990601</v>
+      </c>
+      <c r="T14" s="8">
+        <f>SUM(T1:T11)</f>
+        <v>293879.77</v>
+      </c>
+      <c r="U14" s="1">
+        <f>T14/11</f>
+        <v>26716.342727272728</v>
+      </c>
+      <c r="V14" s="1">
+        <f>POWER(J11,2)</f>
+        <v>25649.478429752075</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="10">
+        <f>U14-V14</f>
+        <v>1066.8642975206531</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <f>POWER(D11,2)</f>
+        <v>184573266287.28101</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <f>SQRT(R14)</f>
+        <v>17544.475905820214</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="9">
+        <f>SQRT(X14)</f>
+        <v>32.662888689163012</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="N16" s="14">
+        <f>N14-N15</f>
+        <v>307808634.80990601</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C11" xr:uid="{1798F1E4-CB3B-444E-B4F9-6FEE5D5DB03B}">
-    <sortState ref="C2:C11">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C11">
       <sortCondition ref="C1:C11"/>
     </sortState>
   </autoFilter>
-  <sortState ref="G2:G13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G13">
     <sortCondition ref="G1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="O1:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
